--- a/docs/templates/dataschema - template.xlsx
+++ b/docs/templates/dataschema - template.xlsx
@@ -1,22 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twey\ownCloud\tweyPrivateFolder\harmonizR\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62926514-5721-4714-B4D8-2F02A7F88650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="readme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label:en</t>
+  </si>
+  <si>
+    <t>valueType</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Column name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short description of the category code value. </t>
+  </si>
+  <si>
+    <t>Index to order variables in the table.</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Name of the DataSchema variable.</t>
+  </si>
+  <si>
+    <t>Short description of the DataSchema variable.</t>
+  </si>
+  <si>
+    <t>Value type of the variable (e.g., text, integer, decimal, boolean, date, datetime).</t>
+  </si>
+  <si>
+    <t>Must be provided by the user. 
+Each entry must be unique. 
+The first entry must be the primary identifier variable (e.g., participant unique ID).</t>
+  </si>
+  <si>
+    <t>If not provided, values are copied from the variable 'name'.
+A language can be specified using a language code, such as ‘label:en’ for English or ‘label:fr’ for French. The default is English. 
+Column name can be 'label' with no language code, but this column name in the Variables and Categories sheets should match.</t>
+  </si>
+  <si>
+    <t>Name of the DataSchema variable to which the category belongs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category code value. </t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>If not provided, an automatically generated index is used.</t>
+  </si>
+  <si>
+    <t>Boolean value indicating if the category value in ‘name’ is interpreted as a missing value.</t>
+  </si>
+  <si>
+    <t>If not provided, the default value is "text". 
+See additional details at https://opaldoc.obiba.org/en/dev/magma-user-guide/value/type.html.</t>
+  </si>
+  <si>
+    <t>This column is required if the table Categories is present. 
+The combination of ‘variable’ and ‘name’ within the Categories table (i.e., the combination of DataSchema variable and category code value) must be unique.</t>
+  </si>
+  <si>
+    <t>This column is required if the Categories table is present. 
+The value must also match a value in the column ‘name’ in the Variables table.</t>
+  </si>
+  <si>
+    <t>Can be in format TRUE/FALSE or 1/0. 
+E.g., "TRUE" for categories "Prefer not to answer” or "Valid skip".</t>
+  </si>
+  <si>
+    <t>The table below provides guidance on using this template. The columns included in the template represent the recommended minimum columns and must have the names as presented for use in Rmonize functions. Additional columns with different names can be present but are not used in data processing. 
+An example DataSchema with information from an illustrative use case is provided in the package (see 'Rmonize::Rmonize_examples$DataSchema' in R).</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +149,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -49,28 +173,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8FBFD4D7-369F-404B-9A5D-409EC2011A0E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -108,7 +407,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -142,6 +441,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -176,9 +476,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -351,62 +652,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>label:en</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valueType</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>adm_unique_id</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Unique identification code of the participant.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>adm_study</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Indicator of the survey study.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -415,56 +686,218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label:en</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>adm_study</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>study_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Study n. 1</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E61AE57-D6AB-4DD3-A221-FB2DEA315A0E}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>